--- a/test_everything/PV_OUTPUT.xlsx
+++ b/test_everything/PV_OUTPUT.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DDB28C-873B-4438-867A-0CB53DC30317}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41EFFB0-322C-4072-966F-50D4287E4298}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -350,9 +350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
